--- a/biology/Botanique/Étangs_des_Enfants_Noyés/Étangs_des_Enfants_Noyés.xlsx
+++ b/biology/Botanique/Étangs_des_Enfants_Noyés/Étangs_des_Enfants_Noyés.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tangs_des_Enfants_Noy%C3%A9s</t>
+          <t>Étangs_des_Enfants_Noyés</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les étangs des Enfants Noyés (en néerlandais: Vijvers van de Verdronken Kinderen) sont situés au croisement de la drève du Comte et de la drève des Tumuli à Watermael-Boitsfort, en forêt de Soignes.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89tangs_des_Enfants_Noy%C3%A9s</t>
+          <t>Étangs_des_Enfants_Noyés</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La réserve naturelle des enfants Noyés doit son nom à une méprise. Un moulin était autrefois installé en bordure de l’étang. Il appartenait à un certain Verdroncken (en français: Noyé). Ses enfants en héritèrent et prirent l’habitude de l’appeler Le Moulin des enfants Verdroncken, jusqu’au jour où une mauvaise traduction transforma Kinderen  Verdroncken en Verdronken Kinderen, c’est-à-dire Enfants Noyés.
-Par héritages successifs, les étangs devinrent la propriété de la famille van der Meulen[2] importante famille de marchands de poissons d'eau douce au Visscher Zenne, dont la plupart étaient doyens de la corporation des poissonniers d'eau douce. Ils possédaient un grand nombre de viviers et d'étangs, notamment dans la forêt de Soignes. Elisabeth Van der Meulen[3] (1720-1769)[4], épouse de Jean-Baptiste van Dievoet (1704-1776), fut la dernière propriétaire des étangs des Enfants noyés, c'est elle qui les vendit à l'État[5] en 1744.
+Par héritages successifs, les étangs devinrent la propriété de la famille van der Meulen importante famille de marchands de poissons d'eau douce au Visscher Zenne, dont la plupart étaient doyens de la corporation des poissonniers d'eau douce. Ils possédaient un grand nombre de viviers et d'étangs, notamment dans la forêt de Soignes. Elisabeth Van der Meulen (1720-1769), épouse de Jean-Baptiste van Dievoet (1704-1776), fut la dernière propriétaire des étangs des Enfants noyés, c'est elle qui les vendit à l'État en 1744.
 </t>
         </is>
       </c>
